--- a/admin/lists/full_groups_list.xlsx
+++ b/admin/lists/full_groups_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>day</t>
   </si>
@@ -44,6 +44,12 @@
     <t>Mathe</t>
   </si>
   <si>
+    <t>Anneliese</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>Barbara</t>
   </si>
   <si>
@@ -62,22 +68,22 @@
     <t>Domini</t>
   </si>
   <si>
-    <t>Anneliese</t>
-  </si>
-  <si>
-    <t>Aaron</t>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Röckelein</t>
   </si>
   <si>
     <t>Eva</t>
   </si>
   <si>
     <t>Emil</t>
-  </si>
-  <si>
-    <t>Fabian</t>
-  </si>
-  <si>
-    <t>Fan</t>
   </si>
   <si>
     <t>Spanisch</t>
@@ -443,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -530,13 +536,13 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -544,13 +550,13 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -558,72 +564,63 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11">
-        <v>2</v>
-      </c>
       <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -634,252 +631,249 @@
     </row>
     <row r="12" spans="1:7">
       <c r="C12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
       <c r="C15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="C17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="C18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="C19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="C20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7">
+      <c r="B21">
+        <v>2</v>
+      </c>
       <c r="C21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="C22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="C23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24">
-        <v>2</v>
-      </c>
       <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="C25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="C26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="C27">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="C28">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -893,53 +887,44 @@
     </row>
     <row r="29" spans="1:7">
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="C30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
       <c r="C31">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -950,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -964,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -975,13 +960,13 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1006,80 +991,74 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="C38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="C39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
         <v>22</v>
       </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="B40">
-        <v>2</v>
-      </c>
       <c r="C40">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="C41">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1093,7 +1072,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="C42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1107,10 +1086,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="C43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -1121,44 +1100,35 @@
     </row>
     <row r="44" spans="1:7">
       <c r="C44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="C45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
       <c r="C46">
         <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>21</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1178,44 +1148,44 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:7">
+      <c r="B48">
+        <v>2</v>
+      </c>
       <c r="C48">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="B49">
-        <v>2</v>
-      </c>
       <c r="C49">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1226,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1251,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -1265,154 +1235,151 @@
         <v>6</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="C54">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
       <c r="C55">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="C56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="C57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="B58">
-        <v>2</v>
-      </c>
       <c r="C58">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="C59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="C60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="C61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
       <c r="C62">
         <v>6</v>
       </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1420,13 +1387,962 @@
         <v>6</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
         <v>19</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G68" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="C118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="C123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="C124">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="C125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="C126">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="C128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
